--- a/ExcelTask/ExcelAdvTask1st/AdvanceTask1.xlsx
+++ b/ExcelTask/ExcelAdvTask1st/AdvanceTask1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\python\Numpy_Panda.np\Excel\ExcelAdvanceTask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Interview-Preperation\SQL\SQL_Practice_Question_Internship\InternshipTaskSachinYadav\ExcelTask\ExcelAdvTask1st\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964CDD9B-018B-4A09-939E-4A850368BADC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3144E227-FCA5-4049-9699-16345853D33E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="108" windowWidth="8580" windowHeight="8760" tabRatio="778" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="108" windowWidth="8580" windowHeight="8760" tabRatio="778" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalSalesByProduct " sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId10"/>
     <pivotCache cacheId="1" r:id="rId11"/>
-    <pivotCache cacheId="4" r:id="rId12"/>
+    <pivotCache cacheId="2" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="163">
   <si>
     <t xml:space="preserve">            </t>
   </si>
@@ -1796,86 +1796,6 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -2054,6 +1974,86 @@
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2182,46 +2182,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="lt2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -2353,11 +2314,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ComboChartSalesRevenue!$A$4:$A$8</c:f>
+              <c:f>ComboChartSalesRevenue!$A$4:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Air Conditioner</c:v>
+                  <c:v>Blender</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Camera</c:v>
@@ -2366,22 +2327,19 @@
                   <c:v>Microwave</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Smartphone</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>TV</c:v>
+                  <c:v>Refrigerator</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ComboChartSalesRevenue!$B$4:$B$8</c:f>
+              <c:f>ComboChartSalesRevenue!$B$4:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>800</c:v>
@@ -2390,10 +2348,7 @@
                   <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>900</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2493,11 +2448,11 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>ComboChartSalesRevenue!$A$4:$A$8</c:f>
+              <c:f>ComboChartSalesRevenue!$A$4:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Air Conditioner</c:v>
+                  <c:v>Blender</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Camera</c:v>
@@ -2506,22 +2461,19 @@
                   <c:v>Microwave</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Smartphone</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>TV</c:v>
+                  <c:v>Refrigerator</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ComboChartSalesRevenue!$C$4:$C$8</c:f>
+              <c:f>ComboChartSalesRevenue!$C$4:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2200</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>880</c:v>
@@ -2530,10 +2482,7 @@
                   <c:v>1650</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>990</c:v>
+                  <c:v>2640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2752,7 +2701,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4297,8 +4246,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Product">
@@ -4321,7 +4270,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5382,7 +5331,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0">
@@ -5492,21 +5441,21 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62F66AFB-DF0E-42CE-A7D3-99E0B4424F7C}" name="ComboChartSalesRevenue" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62F66AFB-DF0E-42CE-A7D3-99E0B4424F7C}" name="ComboChartSalesRevenue" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="11">
-        <item x="4"/>
-        <item h="1" x="9"/>
+        <item h="1" x="4"/>
+        <item x="9"/>
         <item x="7"/>
         <item h="1" x="0"/>
         <item x="5"/>
-        <item h="1" x="2"/>
-        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="1"/>
         <item h="1" x="3"/>
-        <item x="6"/>
+        <item h="1" x="6"/>
         <item h="1" x="8"/>
         <item t="default"/>
       </items>
@@ -5536,9 +5485,9 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="4">
     <i>
-      <x/>
+      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -5547,10 +5496,7 @@
       <x v="4"/>
     </i>
     <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
+      <x v="5"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -5601,7 +5547,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57391930-712B-4FA6-8886-6C995E421D4D}" name="AverageSalesInsteadofTotalSales" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57391930-712B-4FA6-8886-6C995E421D4D}" name="AverageSalesInsteadofTotalSales" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -5702,7 +5648,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BC34332C-FA2E-42B0-ACC2-D0B6C81611C2}" name="TotalSalesRevenueSortDesc" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BC34332C-FA2E-42B0-ACC2-D0B6C81611C2}" name="TotalSalesRevenueSortDesc" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -5810,15 +5756,15 @@
   <data>
     <tabular pivotCacheId="1768968489">
       <items count="10">
-        <i x="4" s="1"/>
-        <i x="9"/>
+        <i x="4"/>
+        <i x="9" s="1"/>
         <i x="7" s="1"/>
         <i x="0"/>
         <i x="5" s="1"/>
-        <i x="2"/>
-        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="1"/>
         <i x="3"/>
-        <i x="6" s="1"/>
+        <i x="6"/>
         <i x="8"/>
       </items>
     </tabular>
@@ -5833,20 +5779,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:R13" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:R13" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="B2:R13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B3:R13">
     <sortCondition descending="1" ref="I3"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Transaction ID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Product" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Category" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Region" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Sales ($)" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units Sold" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Total Sales Value" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Transaction ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Product" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Category" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Region" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Sales ($)" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units Sold" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Total Sales Value" dataDxfId="0">
       <calculatedColumnFormula>F3*H3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sales  Tax on Sales value">
@@ -6706,15 +6652,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BFCFAC-F8E6-4903-9E5E-B21B307F7601}">
-  <dimension ref="A3:C8"/>
+  <dimension ref="A3:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
@@ -6735,13 +6681,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="30">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="C4" s="30">
-        <v>2200</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6768,24 +6714,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" s="30">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="C7" s="30">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="30">
-        <v>900</v>
-      </c>
-      <c r="C8" s="30">
-        <v>990</v>
+        <v>2640</v>
       </c>
     </row>
   </sheetData>
@@ -8212,32 +8147,32 @@
     <mergeCell ref="F16:H16"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I13">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
       <formula>2000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="greaterThan">
       <formula>2000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
       <formula>2000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="greaterThan">
       <formula>2000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M17">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",M3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M14">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",M3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",M3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8255,7 +8190,7 @@
   <dimension ref="A3:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="C52" sqref="C52:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
